--- a/docs/5u26/doc/_downloads/nablarch5u26-releasenote.xlsx
+++ b/docs/5u26/doc/_downloads/nablarch5u26-releasenote.xlsx
@@ -4,9 +4,9 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="222" documentId="6_{A7C4AB00-40C7-4478-9A6C-550FDE52FF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B96C0DCF-9886-4FC2-9FA0-61EE38E612D6}"/>
+  <xr:revisionPtr revIDLastSave="223" documentId="6_{A7C4AB00-40C7-4478-9A6C-550FDE52FF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A484856A-2336-49BA-9C77-D559C7CA7A73}"/>
   <bookViews>
-    <workbookView xWindow="1230" yWindow="690" windowWidth="27375" windowHeight="14610" tabRatio="678" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="420" windowWidth="27375" windowHeight="14610" tabRatio="678" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5u26" sheetId="2" r:id="rId1"/>
@@ -37,8 +37,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1856,32 +1854,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>以下のコンテナ用ブランクプロジェクトのMavenプロファイルに、gsp-dba-maven-pluginの依存関係が不足していたので追加しました。
-・コンテナ用ウェブアプリケーション
-　・BACKUPプロファイル
-・コンテナ用RESTfulウェブサービス
-　・gspプロファイル</t>
-    <rPh sb="0" eb="2">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>イゾン</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>カンケイ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>フソク</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>https://nablarch.github.io/docs/5u26/doc/application_framework/application_framework/blank_project/addin_gsp.html</t>
     <phoneticPr fontId="11"/>
   </si>
@@ -1903,6 +1875,33 @@
   </si>
   <si>
     <t>https://nablarch.github.io/docs/5u26/doc/application_framework/adaptors/router_adaptor.html</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t xml:space="preserve">以下のコンテナ用ブランクプロジェクトのMavenプロファイルに、gsp-dba-maven-pluginの依存関係が不足していたので追加しました。
+・コンテナ用ウェブアプリケーション
+　・BACKUPプロファイル
+・コンテナ用RESTfulウェブサービス
+　・gspプロファイル
+</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>イゾン</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>フソク</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ツイカ</t>
+    </rPh>
     <phoneticPr fontId="11"/>
   </si>
 </sst>
@@ -2645,35 +2644,35 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="38" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3655,64 +3654,64 @@
       <c r="DU3" s="8"/>
     </row>
     <row r="4" spans="1:125" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="77" t="s">
+      <c r="B4" s="76"/>
+      <c r="C4" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="77" t="s">
+      <c r="D4" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="77" t="s">
+      <c r="E4" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="77" t="s">
+      <c r="F4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="77" t="s">
+      <c r="G4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="77" t="s">
+      <c r="H4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="79" t="s">
+      <c r="I4" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="80"/>
-      <c r="K4" s="77" t="s">
+      <c r="J4" s="84"/>
+      <c r="K4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="77" t="s">
+      <c r="L4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="75" t="s">
+      <c r="M4" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="79" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:125" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="83"/>
-      <c r="B5" s="84"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
+      <c r="A5" s="77"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
       <c r="I5" s="41" t="s">
         <v>14</v>
       </c>
       <c r="J5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="78"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="78"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="80"/>
       <c r="O5" s="1"/>
     </row>
     <row r="6" spans="1:125" ht="21" x14ac:dyDescent="0.15">
@@ -3812,7 +3811,7 @@
         <v>60</v>
       </c>
       <c r="M8" s="74" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N8" s="21" t="s">
         <v>61</v>
@@ -3835,7 +3834,7 @@
         <v>65</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H9" s="21" t="s">
         <v>66</v>
@@ -3851,7 +3850,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:125" s="9" customFormat="1" ht="96" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:125" s="9" customFormat="1" ht="108" x14ac:dyDescent="0.15">
       <c r="A10" s="11"/>
       <c r="B10" s="50"/>
       <c r="C10" s="21">
@@ -3868,7 +3867,7 @@
         <v>294</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="H10" s="21" t="s">
         <v>66</v>
@@ -3884,7 +3883,7 @@
       </c>
       <c r="L10" s="21"/>
       <c r="M10" s="74" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N10" s="21" t="s">
         <v>291</v>
@@ -3945,7 +3944,7 @@
         <v>31</v>
       </c>
       <c r="M12" s="74" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N12" s="21" t="s">
         <v>38</v>
@@ -4066,11 +4065,6 @@
     <sortCondition ref="E7"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="G4:G5"/>
@@ -4078,6 +4072,11 @@
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <conditionalFormatting sqref="G13">
@@ -6164,6 +6163,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1d008ebc-df4f-45f1-825a-8a8202e958a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="86b2f916-4c25-4caf-b602-cb3f88f7f404" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101004FB777E25BEAEA41AA8B3499B0554451" ma:contentTypeVersion="14" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="cab236ad035079879286742c28a2fb3a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1d008ebc-df4f-45f1-825a-8a8202e958a5" xmlns:ns3="86b2f916-4c25-4caf-b602-cb3f88f7f404" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="57e248e240f15292beae7630b1ab64c6" ns2:_="" ns3:_="">
     <xsd:import namespace="1d008ebc-df4f-45f1-825a-8a8202e958a5"/>
@@ -6392,34 +6411,46 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1d008ebc-df4f-45f1-825a-8a8202e958a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="86b2f916-4c25-4caf-b602-cb3f88f7f404" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{877048DC-B786-407D-A2D6-DFE13E55DC36}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80999B3F-CDC5-475B-9B15-FAF51F797A81}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="86b2f916-4c25-4caf-b602-cb3f88f7f404"/>
+    <ds:schemaRef ds:uri="1d008ebc-df4f-45f1-825a-8a8202e958a5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{114B85B1-46FB-49F0-82F8-37782A31268A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{114B85B1-46FB-49F0-82F8-37782A31268A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80999B3F-CDC5-475B-9B15-FAF51F797A81}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{877048DC-B786-407D-A2D6-DFE13E55DC36}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1d008ebc-df4f-45f1-825a-8a8202e958a5"/>
+    <ds:schemaRef ds:uri="86b2f916-4c25-4caf-b602-cb3f88f7f404"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>